--- a/user/static/specialneeds.xlsx
+++ b/user/static/specialneeds.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malak\Desktop\Projects\Django\server\src\user\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72432D1-DF08-426F-AC76-48F092B11498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74A0F81-D8A8-40F1-9245-25D5D7F7D5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,24 +42,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,14 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -76,22 +68,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,48 +381,450 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>72132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>94094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>106308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>108699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>118322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>119902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>121607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>126071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>126280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>126937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>127020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>128508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>129158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>129819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>130367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>131379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>131629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>132285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>133282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>133481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>134309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>134345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>134346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>135030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>135164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>136769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>137001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>137459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>137470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>137860</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>138730</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>140142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>140187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>140376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>140807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>141022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>141578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>142559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>142635</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>143301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>143981</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>144042</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>144383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>144530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>145015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>145999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>146096</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>146569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>147664</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>148647</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>149087</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>149787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>150912</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>151764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>151811</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>153558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>153683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>154166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>154330</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>155047</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>155128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>155272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>155518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>155619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>156639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>156903</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>158664</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>158813</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>159854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>160045</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>161145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>161370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>162194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>163428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>163581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>163811</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>163937</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>164201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>164292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>164608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>164629</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>165751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>165919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>